--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.79558089817498</v>
+        <v>3.332428</v>
       </c>
       <c r="H2">
-        <v>1.79558089817498</v>
+        <v>9.997284000000001</v>
       </c>
       <c r="I2">
-        <v>0.005898222384945579</v>
+        <v>0.01078284025505985</v>
       </c>
       <c r="J2">
-        <v>0.005898222384945579</v>
+        <v>0.01078284025505985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>105.863074054653</v>
+        <v>1.321445333333333</v>
       </c>
       <c r="N2">
-        <v>105.863074054653</v>
+        <v>3.964336</v>
       </c>
       <c r="O2">
-        <v>0.8356715064317114</v>
+        <v>0.01021782062667047</v>
       </c>
       <c r="P2">
-        <v>0.8356715064317114</v>
+        <v>0.01021782062667047</v>
       </c>
       <c r="Q2">
-        <v>190.0857135946182</v>
+        <v>4.403621429269334</v>
       </c>
       <c r="R2">
-        <v>190.0857135946182</v>
+        <v>39.63259286342401</v>
       </c>
       <c r="S2">
-        <v>0.004928976385696713</v>
+        <v>0.0001101771275722432</v>
       </c>
       <c r="T2">
-        <v>0.004928976385696713</v>
+        <v>0.0001101771275722432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.79558089817498</v>
+        <v>3.332428</v>
       </c>
       <c r="H3">
-        <v>1.79558089817498</v>
+        <v>9.997284000000001</v>
       </c>
       <c r="I3">
-        <v>0.005898222384945579</v>
+        <v>0.01078284025505985</v>
       </c>
       <c r="J3">
-        <v>0.005898222384945579</v>
+        <v>0.01078284025505985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.8171743921137</v>
+        <v>105.9632263333333</v>
       </c>
       <c r="N3">
-        <v>20.8171743921137</v>
+        <v>317.889679</v>
       </c>
       <c r="O3">
-        <v>0.1643284935682886</v>
+        <v>0.819340166699254</v>
       </c>
       <c r="P3">
-        <v>0.1643284935682886</v>
+        <v>0.8193401666992541</v>
       </c>
       <c r="Q3">
-        <v>37.37892069245671</v>
+        <v>353.1148224035373</v>
       </c>
       <c r="R3">
-        <v>37.37892069245671</v>
+        <v>3178.033401631836</v>
       </c>
       <c r="S3">
-        <v>0.0009692459992488653</v>
+        <v>0.008834814132072167</v>
       </c>
       <c r="T3">
-        <v>0.0009692459992488653</v>
+        <v>0.008834814132072169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>294.833336337169</v>
+        <v>3.332428</v>
       </c>
       <c r="H4">
-        <v>294.833336337169</v>
+        <v>9.997284000000001</v>
       </c>
       <c r="I4">
-        <v>0.9684846758949056</v>
+        <v>0.01078284025505985</v>
       </c>
       <c r="J4">
-        <v>0.9684846758949056</v>
+        <v>0.01078284025505985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>105.863074054653</v>
+        <v>22.04284166666666</v>
       </c>
       <c r="N4">
-        <v>105.863074054653</v>
+        <v>66.128525</v>
       </c>
       <c r="O4">
-        <v>0.8356715064317114</v>
+        <v>0.1704420126740755</v>
       </c>
       <c r="P4">
-        <v>0.8356715064317114</v>
+        <v>0.1704420126740755</v>
       </c>
       <c r="Q4">
-        <v>31211.96331844214</v>
+        <v>73.45618276956667</v>
       </c>
       <c r="R4">
-        <v>31211.96331844214</v>
+        <v>661.1056449261</v>
       </c>
       <c r="S4">
-        <v>0.8093350480611236</v>
+        <v>0.001837848995415443</v>
       </c>
       <c r="T4">
-        <v>0.8093350480611236</v>
+        <v>0.001837848995415443</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>294.833336337169</v>
+        <v>295.7980143333334</v>
       </c>
       <c r="H5">
-        <v>294.833336337169</v>
+        <v>887.394043</v>
       </c>
       <c r="I5">
-        <v>0.9684846758949056</v>
+        <v>0.9571227754418815</v>
       </c>
       <c r="J5">
-        <v>0.9684846758949056</v>
+        <v>0.9571227754418815</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>20.8171743921137</v>
+        <v>1.321445333333333</v>
       </c>
       <c r="N5">
-        <v>20.8171743921137</v>
+        <v>3.964336</v>
       </c>
       <c r="O5">
-        <v>0.1643284935682886</v>
+        <v>0.01021782062667047</v>
       </c>
       <c r="P5">
-        <v>0.1643284935682886</v>
+        <v>0.01021782062667047</v>
       </c>
       <c r="Q5">
-        <v>6137.59697913956</v>
+        <v>390.8809056500498</v>
       </c>
       <c r="R5">
-        <v>6137.59697913956</v>
+        <v>3517.928150850448</v>
       </c>
       <c r="S5">
-        <v>0.159149627833782</v>
+        <v>0.009779708837166144</v>
       </c>
       <c r="T5">
-        <v>0.159149627833782</v>
+        <v>0.009779708837166145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.79854937865808</v>
+        <v>295.7980143333334</v>
       </c>
       <c r="H6">
-        <v>7.79854937865808</v>
+        <v>887.394043</v>
       </c>
       <c r="I6">
-        <v>0.02561710172014876</v>
+        <v>0.9571227754418815</v>
       </c>
       <c r="J6">
-        <v>0.02561710172014876</v>
+        <v>0.9571227754418815</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>105.863074054653</v>
+        <v>105.9632263333333</v>
       </c>
       <c r="N6">
-        <v>105.863074054653</v>
+        <v>317.889679</v>
       </c>
       <c r="O6">
-        <v>0.8356715064317114</v>
+        <v>0.819340166699254</v>
       </c>
       <c r="P6">
-        <v>0.8356715064317114</v>
+        <v>0.8193401666992541</v>
       </c>
       <c r="Q6">
-        <v>825.5784103917484</v>
+        <v>31343.71194175358</v>
       </c>
       <c r="R6">
-        <v>825.5784103917484</v>
+        <v>282093.4074757822</v>
       </c>
       <c r="S6">
-        <v>0.0214074819848911</v>
+        <v>0.7842091343822039</v>
       </c>
       <c r="T6">
-        <v>0.0214074819848911</v>
+        <v>0.784209134382204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.79854937865808</v>
+        <v>295.7980143333334</v>
       </c>
       <c r="H7">
-        <v>7.79854937865808</v>
+        <v>887.394043</v>
       </c>
       <c r="I7">
-        <v>0.02561710172014876</v>
+        <v>0.9571227754418815</v>
       </c>
       <c r="J7">
-        <v>0.02561710172014876</v>
+        <v>0.9571227754418815</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.8171743921137</v>
+        <v>22.04284166666666</v>
       </c>
       <c r="N7">
-        <v>20.8171743921137</v>
+        <v>66.128525</v>
       </c>
       <c r="O7">
-        <v>0.1643284935682886</v>
+        <v>0.1704420126740755</v>
       </c>
       <c r="P7">
-        <v>0.1643284935682886</v>
+        <v>0.1704420126740755</v>
       </c>
       <c r="Q7">
-        <v>162.3437624210352</v>
+        <v>6520.228795264064</v>
       </c>
       <c r="R7">
-        <v>162.3437624210352</v>
+        <v>58682.05915737657</v>
       </c>
       <c r="S7">
-        <v>0.004209619735257659</v>
+        <v>0.1631339322225115</v>
       </c>
       <c r="T7">
-        <v>0.004209619735257659</v>
+        <v>0.1631339322225115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>9.918743333333333</v>
+      </c>
+      <c r="H8">
+        <v>29.75623</v>
+      </c>
+      <c r="I8">
+        <v>0.03209438430305867</v>
+      </c>
+      <c r="J8">
+        <v>0.03209438430305867</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.321445333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.964336</v>
+      </c>
+      <c r="O8">
+        <v>0.01021782062667047</v>
+      </c>
+      <c r="P8">
+        <v>0.01021782062667047</v>
+      </c>
+      <c r="Q8">
+        <v>13.10707709036445</v>
+      </c>
+      <c r="R8">
+        <v>117.96369381328</v>
+      </c>
+      <c r="S8">
+        <v>0.0003279346619320818</v>
+      </c>
+      <c r="T8">
+        <v>0.0003279346619320818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.918743333333333</v>
+      </c>
+      <c r="H9">
+        <v>29.75623</v>
+      </c>
+      <c r="I9">
+        <v>0.03209438430305867</v>
+      </c>
+      <c r="J9">
+        <v>0.03209438430305867</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>105.9632263333333</v>
+      </c>
+      <c r="N9">
+        <v>317.889679</v>
+      </c>
+      <c r="O9">
+        <v>0.819340166699254</v>
+      </c>
+      <c r="P9">
+        <v>0.8193401666992541</v>
+      </c>
+      <c r="Q9">
+        <v>1051.022044772241</v>
+      </c>
+      <c r="R9">
+        <v>9459.198402950169</v>
+      </c>
+      <c r="S9">
+        <v>0.02629621818497802</v>
+      </c>
+      <c r="T9">
+        <v>0.02629621818497802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.918743333333333</v>
+      </c>
+      <c r="H10">
+        <v>29.75623</v>
+      </c>
+      <c r="I10">
+        <v>0.03209438430305867</v>
+      </c>
+      <c r="J10">
+        <v>0.03209438430305867</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>22.04284166666666</v>
+      </c>
+      <c r="N10">
+        <v>66.128525</v>
+      </c>
+      <c r="O10">
+        <v>0.1704420126740755</v>
+      </c>
+      <c r="P10">
+        <v>0.1704420126740755</v>
+      </c>
+      <c r="Q10">
+        <v>218.6372888289722</v>
+      </c>
+      <c r="R10">
+        <v>1967.73559946075</v>
+      </c>
+      <c r="S10">
+        <v>0.005470231456148575</v>
+      </c>
+      <c r="T10">
+        <v>0.005470231456148575</v>
       </c>
     </row>
   </sheetData>
